--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/19_Bolu_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/19_Bolu_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0CDAE7-F743-4DF0-859B-A3F3AF707AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C063D28E-5101-4E01-9D98-95E63EC76947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CBE265-32AB-4170-9BD9-948935CC81F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7F4D4FD-9FB1-4213-BE92-342F69C92E00}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{7EAF666D-1B38-4A20-8200-8966A3AC6B20}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{33DC3727-8856-46E1-8031-B821248FD69C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B7709AFA-E4C8-4D15-8F8B-19C50BA31FFF}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{EAC81346-DE1E-4044-B48C-D9EB1094E122}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{66D8B380-615C-4481-9214-733E8C76B98C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{793E2387-CAEB-43F7-BBB6-976FF297CFB1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{3AA31BF0-A530-44B0-81D2-6B4E9B666A8A}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D25C9141-3322-4242-BA75-36F93B37EF74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51347C6-E158-417C-AB05-B08417593E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46757681-552E-4E96-9402-92FCA872BB3D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2419,18 +2419,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{320E4389-9DBD-4E95-82E8-51C00D8AB128}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4DFC2F81-7555-41ED-AA7D-4781AAD2DF92}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A053FF4A-0586-41DF-8470-DB5AA872BB92}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2A43B956-6086-424D-AB4F-62425E95DFB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CA5E70AA-9094-4924-A8F4-411688CB72E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9196C130-8FF8-4316-948A-065B659067CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{15454A71-A1C5-4CC6-A130-F66F4F000043}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9829545F-F22F-428D-B022-211E1B93ED2A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6B629062-55FB-41B1-9C04-73CFF1E2A309}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4F0296F2-0A2F-45DC-A30D-1D81BCC0B764}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7054A53F-0073-4FC5-A932-25F6939EFC94}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B84EA505-51B9-40CA-9066-6AA6769C67B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8AC4CD1B-BF48-4ADD-AD97-D7F8FB053FCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0896735B-B822-424B-B9F9-C3DB9E82B927}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FEA38397-AFD2-43A7-B40B-2CC8F74EDB90}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1484E52C-A9AE-4F48-97AF-EAFB49C32A78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{980ECD81-5B24-4C8A-96BA-9411218A3F2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F346EED5-01AC-4922-B8D4-F4F2E13CA2F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EFCEE9B4-1E03-464D-9C80-78C171AD8EB7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9EAB5C06-47BD-4E33-B78E-BBF776518FDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{03122C1C-BBB6-47EF-928D-7106F1294A89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED3F999F-89DA-40F7-8098-7EB6601B7D66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7C12F534-84EE-4285-9B61-5DB8B1C6EC01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C3D1BD39-7069-49CB-9114-0B9CFB456E9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2443,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050CD22-D24F-4039-94A5-91C3B58971C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9087DB-A38B-4F44-B0D7-BC5814B223BD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3604,18 +3604,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{73E6F74A-3EFD-436A-B585-C571833ED5B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DEABBC56-BF41-44F3-B200-E83E36802AFE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{32B8769B-B5D1-43A7-95CA-7A41DD8F20E2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B48D39B6-BF8C-4028-A7D6-26E6297F4A38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D26E01C-6F3F-4572-81A4-B684CC383ECB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{719CCDA1-AF78-4926-9FC5-AB2F80C63FAA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7E068F8C-4626-4E6D-A66E-234FEC9D5040}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E1980419-2CEB-47F9-96D8-3E10939D1ECE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8502A8D2-EFA4-4040-AF5E-BB389304414D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F877E190-564E-4AD6-B825-116195FB3C9D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70ADB189-4A8E-463E-92BA-FF82549C0456}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4E763D9A-CD1A-45DA-B610-B8B00891EF6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1E852BDE-3B35-4B3C-ACB2-99A9B5A3C025}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AF89164A-C59C-4411-8F47-A8E45C620372}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D137771-97D2-4EDF-A02A-BA34003E93A4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D693C314-51AE-4794-928E-7D3A4DA4FE19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{44DAAC17-E8B8-406E-A8FE-87C8096754C8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8C2A4661-9CC1-48AF-A034-623AEF6C37B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DFE95B2A-A2CA-4209-8E4A-DA2A8974E425}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F772D815-DA1F-4C2D-8811-C9F7EAA32968}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C2984F65-9701-440A-B612-F6D3451A9948}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F860D4F-40B8-4DB1-AEFB-07B183597A5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F6B3DBC4-C0DF-4649-AC89-A025BF7FF061}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D9902E35-2102-44DC-A452-78FA1E5E000F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3628,7 +3628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9177B029-01AC-4934-B566-7DC4C730A9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FB2F62-21C6-436C-83D5-FC73F43156F5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4789,18 +4789,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A93B33EA-93DF-4C65-94D5-9A792915CD99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{95A75E4F-56EC-4FC6-9103-87EFE89EDED4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4E5B30C1-9C99-453B-9984-AB5C9A07A12D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D75DBD76-496B-4DFC-BCCA-781939C4B745}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EB16AEBB-5CD4-4392-9112-5BE42AB75C2F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6B5C44B0-C85D-4E4F-8D06-947AA9464971}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7B10495F-AB95-424C-99C0-EA856B417592}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2433B0D5-964C-4D0E-8213-284EC6749836}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{558933FB-038F-4D93-8782-F55C76EB9AA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9BF61A05-E3F9-44C7-870D-B3E4FB09153F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DA8C061F-79EA-46A7-8848-33BB945945BB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C38F3B66-DEF0-4F99-BC81-E60FA0DF159B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2059ECE-05F7-49B8-AA3E-8DDBD56FA0DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C7645E0D-2495-4428-AA7C-3BB2CC2B3C52}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE6EF09D-A279-4400-8E2B-FA6A99630DB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D63479D6-A0A3-47DD-9A73-94C88B5F568F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{13A75578-FF83-4483-A4CF-0F2C4CF88930}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{042EC194-141D-418A-94AA-F6E9E424E94D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0B4ADDA5-D398-44B0-BD44-4F51748C8A0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DCB420B0-4267-4B37-8FC6-70D312881466}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9685931C-AF71-4804-B18D-525E1A6C1DD9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4F71AD89-F83A-4618-BDA8-153A03C03951}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D892233C-B76C-4C16-9332-7E0CAB287EE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C28CAED7-BE93-4FD7-A4EE-9FE74A747F7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4813,7 +4813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8CCB7F-E26D-4689-91A4-5376315F1F0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF118DA-6324-4055-B784-F17EDBD4006F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5966,18 +5966,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{48D47E05-9AF1-4076-B439-76B93052C908}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A9DE11EF-0716-4227-A5ED-46579594CB8B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AA52861B-E199-4F3C-93CB-6213CD3D574F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ED6463B2-68BC-4190-AF54-D75D2550A566}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01A8C96B-CED1-48B7-A779-B8E3894329B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{289C4C23-5D07-4913-B183-0E3C92CBACB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C1AC5ADD-EF3E-4BE9-BA9C-C1D2581E561D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CF02CB77-4EA8-4C19-9D7C-962077FD7D9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{14EEBD9C-E165-4D4A-BD47-523A16E77284}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F06DE17F-7734-4A6B-B99A-60D91A650793}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74AAFC7A-15BF-4919-9130-0F6D04DBC12F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F8F8690B-8748-4E60-B8B7-98685DC9BF3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BFA1B4DA-7FAB-42A0-BAD4-A2CA83677736}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DBEBBF3F-CDED-4B8F-8CD5-F55048A651F5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{49C87B4C-57EB-4A3C-8471-13663FADA9D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72EF05DB-6108-45FD-BF37-45838862FC88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F968D28B-7030-4240-BC44-381CE0CED1DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1AC9829F-AE26-4D52-A63C-3A7553363F9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{578FBC4A-9286-4C9A-A759-DECB1CEF164C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1A0C38E8-1C37-4E20-942D-1C4927E7C761}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4B54F3D2-31DB-4643-807B-A30224890DB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{855DEAE2-B6ED-4301-A661-46B4045B0F41}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5386E821-D82E-4A42-9222-FB657A51D04D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86ECAAE2-F2A8-428F-89D1-D3B1DE7639B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5990,7 +5990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7F9178-FDA6-4BD1-B3DB-7E3CF2A780D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24312F96-1BF3-41A2-B7F1-EDC1B66CCF92}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7169,18 +7169,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BBB78FAF-B71F-4E67-94F2-2EC0A4976A42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{72B3FA0A-59E7-4CA4-9012-334155FB130A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BE009522-2699-41EF-94BC-8341F2AD2A84}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B2A4C56B-3874-41BE-A425-3AB9CAD106BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{41758CC5-B919-43DE-8392-D3FED397796B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E2AE282-38D7-4F66-A013-16164122C3D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B1720970-7E36-4672-AA02-3DD2B7B6B039}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{03748A1D-52B2-4778-B78D-5DDD37F46C52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A9254F3B-CB16-4C11-B35A-B9579D9616D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8731647C-FFFF-4D3B-BBF2-ED44CE1FBC20}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ED053447-DC24-4A03-A134-27EC4A41DEAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CAFC699F-9955-413B-9B2F-315419CD2B09}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CE836B8B-EB19-4A76-93B1-94B7629469C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DCAB857A-57A5-445C-8312-7059C6593A55}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BE4FDFAF-4E19-4D54-815D-99B4E131D825}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6C1C8318-DDE4-4A33-AFC2-53D5B5333205}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2494085C-E4AA-47C3-86BA-7D15D8DAE012}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FD240DA7-114F-473D-A68A-C50727E7D110}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{72BD8D04-327A-46B1-AA81-15F4A3AE6633}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{00D6536E-5DFB-4F56-80A3-B9E1C4084B5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6F3E8455-A999-41AB-9FC9-F145E7EDF7CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9E6016E0-CE2F-4A80-A6CA-0CDBC9F05A38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4096F626-A675-4E12-8EEA-92A873B23B6F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{132222FB-FD2C-416A-9B83-DE4A23FD104C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7193,7 +7193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9D3455-4146-4002-8491-092458D46C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212109EC-85CE-4F27-85BB-E9D19CBDE340}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8364,18 +8364,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D93BB353-32EC-499C-9806-3C73A2F149D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{79240B28-9737-4959-AB9A-951DAC47F8F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B33A06BA-AE96-40CB-96CC-B8AD5489EB73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{45A3C662-F748-48F6-91A0-3B56F2B1249A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A7B4DB84-BF28-4BA4-8CA6-49AB323C74FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F0A0CD20-07AE-483C-99AE-B085745A7FB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C66E39A9-DEE1-4CAB-AA53-F6CBC94CCBFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{007F927E-90A2-4E7F-B612-D94A9480005F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{053D0F8D-8DBE-4137-8E6F-018950E00F43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99EB7402-D4E6-420E-8540-D9A61AA8E35C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8C63846-CA91-4D11-AB7C-475EE65B60E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{26EB8BA1-FD14-4E63-8308-B0511604ABFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1B54A5CD-EF7E-4E77-966E-17E89A9979E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C802663-13FC-4775-83AA-852EF5A7119E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{969A5AB4-E84C-4C09-87C0-98303C1F3B5A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{58CDBA9A-2329-41F8-9A8D-DA967391C2BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A9C178F8-85A4-4E52-978C-00259DE77548}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1C045B55-9D7A-4B2E-B742-84783506E45F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{28E941BE-C575-4255-86CA-65FFD11D4B07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A9D2CFDD-134F-4BC5-A2AF-E9BFC1A912B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5C610A6-260E-4815-9E0C-63BB672BB1C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B92ABE6F-1D1C-45D4-9C5A-A4B1DBF3FDAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7ECEBA32-FBDC-41AF-A865-22CBCF424A2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2BC571DC-52DD-4D43-98B6-17A7E6C86816}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8388,7 +8388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BDF87-DC66-47BF-A80C-A25C3E4D55B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D448E2F-B09F-4350-B005-32A612FEAB98}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9559,18 +9559,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D7DFD600-5021-4A10-92AB-6BF95E5D8A39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C3A67D4-94F2-4B09-8BA9-D81BD8586171}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0547D0A7-97D7-4375-B421-20F7E894FFF4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3D4D607C-7C70-4692-91CA-6D37A71792FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1CB9995A-4FE6-4D19-A294-97B4BE00337B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C0B6BAEE-EBF6-4369-93FE-2BB238F66ED8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{135D4858-8804-4E62-BDC2-42BD30F0CA98}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B16F0BAD-1F32-4E58-9195-0D2FA19F8FC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C36F97AB-2480-432A-B83F-23DFEDA50082}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{43B078A4-8D6B-4AAF-B584-847A2B2ABBE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A7AE94C3-B23E-4C4A-B122-38B98DC58D86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5FF777B2-5FF8-48A0-B3D9-9445D4C3D212}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7A79ABAE-2C6E-480B-8EC2-6D2BABA424FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{93260E05-3F09-49A2-A08A-9E4887752498}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7CD56AF7-17A7-46C8-93A8-E642CCA0535B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6586E348-B793-4872-82D7-D7F40E547510}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5CCAA7AD-B6F1-426C-98AF-6E02EDA9F2C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{16184719-B111-45E8-BEDD-61DD7614C004}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D3CE1B8-F918-4800-824F-30883F25BC58}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3CB4115C-DB0B-4479-8B56-EC5463A6C0BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E3F18609-0820-48E9-9625-2CD9E945BCFB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E0DBB0D-376E-48D3-9C26-526163B52B34}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17E98869-EBA2-435E-ABBD-323ECCB24168}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7A0F3D39-EE04-496A-A5D1-A158871D2D15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9583,7 +9583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69102D06-3D7D-4890-B076-830545B8970A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C9863-96AD-4E3D-B597-92CE424EC54C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10754,18 +10754,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7E8C94DB-C332-4537-9DD5-4192C560AF6F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8CCF620F-33A1-40E7-8204-0F5B364C7948}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9E6F0CE9-9461-4355-B66A-A0EEB9030EAE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FDF65B0B-673B-4562-BD55-3CD038E7D6C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4BC017D9-2E29-4691-B3FA-BABFB148A41F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{02F57FDB-B101-4B92-B719-0E87AA898513}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9E814E35-550A-4369-A872-80EF93C3AD00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{943D2AD7-B766-48EA-8652-67C4FFB3E28A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4D20B132-2503-4434-9CC9-AF723A18FBE7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88B5D1CE-3887-4DC3-8D61-F3654BC66581}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CD74BA5C-6185-4948-950F-E6A718029C44}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F0331B45-DA3A-4694-B23C-2D80BFFB8D3F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{619F8399-4D5A-4249-9D43-94BD59975352}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A928908-7216-4695-9664-91B31EAC9E22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F493A177-263B-4B7B-8691-6B4ED96FBD85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7914DBC4-71CD-4058-8CCA-2D6E771186A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EC4FBC3D-9F9F-4EB7-8D3A-F1819002371A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{836B7347-ABE0-41E0-98C6-5BBED7AE33F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{159226E3-FD9B-48CA-AFD1-B512F519EE69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{58137856-3210-4774-BBB6-D2BF28700F1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2681FFE8-9490-433A-9BBF-BF5484AC312D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C0D00C04-A308-462A-9A81-B8BFF88B8DE5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FB86AF09-6EED-4DF8-B807-D1A29A8A2400}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5C8BE10C-8E69-4C6D-A6D8-5EA576EE1BC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10778,7 +10778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC638BC-69A9-4B9B-9551-21E848CB7B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CDF6A4-5048-4FA6-8A8F-C8FDAA781698}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11949,18 +11949,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{30627536-8289-4C86-9DB4-F89B3D4F79C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{994761DC-F901-45CB-87AA-FDD416273F5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A9B5959-0BD3-4FD0-B664-E879BA636195}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4782EE10-E8BA-4040-9ACD-0A328CE0AFFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{92F47B41-1172-41EC-8107-F4E373FE3C13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{29CAEE77-7A55-42A6-8DF0-102A231F8B10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D807484B-8353-401E-82C6-7955B4848DA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5B97C3D3-6AEC-4457-8CC8-6D8FAC164D50}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0DA09E97-877C-400C-B5EB-C3412F392B50}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{810EDF8A-800E-4127-B101-DA2523FEA7E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{37FF3473-87B9-4A26-B51D-781C199BBCBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{047A2649-7D6A-42EA-AE77-A6D2AC142E38}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4D611C4F-966A-4163-8F6C-E32FF06CB397}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{048F2DA1-93AB-4F66-AE86-D0283BC05F58}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AF958C02-8D65-42BB-8BE4-7B029F86A829}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{291600EA-6B26-4D7C-9551-3F7DFE57B4B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{76551522-F299-41E6-B488-7A7D6CA82814}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8649F150-71CF-48C2-B34C-373E886778E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0B005C7D-3D7E-4531-8E8E-BC606B817AA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{28E59378-7B72-487F-BE54-F6C52829BB82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{21F09652-FD07-4E78-AEC6-AC7CA195AF11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{19D363C2-83A5-480C-A67C-B01EBC2C1D1A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F78194ED-D526-4CE4-B281-7414D0169866}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A5EDC424-9FC3-4956-8F0A-1D962391D55C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11973,7 +11973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95A873F-CEBD-45BD-9D9B-906A2F73299D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9F66A8-1F98-4807-AA5B-61CB85E3CF2F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13140,18 +13140,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1074F1C9-775C-4759-887D-79D67FB9EA5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D59E5FC8-67AB-43E1-B4C0-C477882C2CC1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{92051672-EA1F-4BBE-B1BF-B458552E78AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5AA2FB92-C036-4D2A-96A7-601F3B4FB764}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{881FD9E7-64F9-4A20-91E1-04BDA205EF9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1B317899-3C38-4C46-8FE9-0DA36AB9EB78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F24BDDC2-0D6F-426E-A76D-802352E9D420}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3FCA1596-ABCA-46B3-8181-EF7503C55426}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3C4FBB16-D928-442E-88D7-E773E2ACF72B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{36BE4AA8-F6B3-47DF-A8FF-AD61399EBF44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3587363F-78D0-4EA6-A514-FBDA3D1EF378}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E790DB7-DF82-4426-BD77-255AF94B0CE4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{852809A9-1558-4D73-AA28-7D1E463C09A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EE6894C9-0A21-4E7C-9598-C78DC8C952DB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8D336F3B-65E6-4887-9DE9-47C7AE44CA14}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B7CC95D4-F5D3-4888-9059-6B63ABEDDAA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{90D1B600-FDB7-49D6-A413-C65F110EF40C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DA43134F-B891-447C-B259-22C4955048A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{25263A65-C329-4530-A715-41273BA40CC2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{175923AB-253D-4011-8EC6-8B573ADE4B48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF4A9ED5-DAF8-4D62-9A2C-8A442BCDD4E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DF8CB16E-F681-436E-AACC-402D8FAB8B55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{84408623-3605-4D95-AEDD-E6F49993F480}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EB9BAEE3-E0B5-479A-AC5F-9DFF3E35B8A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13164,7 +13164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3ABE9E-FD2F-477D-A821-76D4790B1E9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8771F109-6289-4B3D-8DF8-C3F8FEB2A1C0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14331,18 +14331,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4F6954C4-A432-4238-A404-59FC30D3D9E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0EADAB61-B4F9-43AE-9A5C-8AEC6079F2C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{366987EE-9535-4A69-91A3-38744A270C1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0C06B52F-1161-46E2-9078-28B81BD3C2B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{95381EBB-0946-4966-83F5-45544C33FF9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A3CF22EF-E9A8-4F50-AA97-DBD97A6AE4AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8328FDFF-672A-4E22-A9B4-3B49C618EC1D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{95D4F7D9-556A-40F9-9EAB-DB14E464A893}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9EB02CC1-7F63-4CEE-9B11-57C77B61B5AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E580E129-C43D-432C-B089-F4F540B6AAA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4DA2F584-38DB-4290-8C08-112F8E7CB748}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75F90FF0-D3B2-4534-9834-B1CDF32EED58}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{43B50A47-BA47-4F63-AC0B-DBC39FB19034}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E2357E12-183C-40A1-90C1-8FCBD36E0831}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B5197689-D151-420D-B900-D5DCB015D63E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8EE3EF11-A1FA-4A75-B967-4F57E53C9061}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B0C5E838-7A83-4F96-80AD-D636C71B0267}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{50C12BC6-31CB-435A-AF98-040D51BAC009}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{264E0D1F-178A-476A-B427-EC5F0F5ADB6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{98412695-C2B3-43CE-AAC9-A9C2EDC16A1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C500EDBB-35F5-4E40-AA11-B74B2C766108}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{806C9361-1C80-4471-BFC3-7BF58541F4D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{51C500C9-E24B-4C0A-B500-721CB2760394}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03B2FF1B-F6AA-4279-89E4-31AFE2BA2F00}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14355,7 +14355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3700E4F9-D869-4504-981A-05DD84D97696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DFB601-2581-4108-88E8-5A2FBD07FF53}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15522,18 +15522,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{89284C83-F4BB-4832-B5F7-E0BDA528A5D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{82B7BDE8-327D-4BD3-A379-F05DCA4797DA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CCFE96D2-E5DE-4DEF-81CC-88490783EEE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{05D197CB-BA66-4261-9AC3-F63C1EE6B17D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3A74CC01-D35F-4FB1-BE5C-D59769FB6875}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{310B5762-F27E-4E55-95D8-9046105E2DA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F4DF7E24-74AD-4EBF-8CF3-AE06F2B09FE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9AB12657-301D-4602-AD0D-D18E0D12889F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5034F0DA-6A6F-49FB-ACF9-73FF735251A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FC67D254-7169-440C-8F6A-5E6254BCBF01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F025763-0C65-4328-94D7-E4876B0DC6E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{026ECD1B-AE19-45F7-BBB0-D17049EE5FB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{332C77A5-E315-4E21-87D1-CB2CF40C5A5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EA05BBC6-8727-4407-9EF6-74C2C385170C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ADB3C9A5-D0F3-4D14-BEBB-25994076848E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AB21C3D3-8F07-4BB6-A0EF-A8B183A959B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{915DD990-A601-430D-8AE0-97639D806A0B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6A501248-5A63-4419-B81F-469F5B4A8CBA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E72572F9-E596-4A49-8E2F-DEA63B736301}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{79CD1529-62D5-4E82-A9B0-28AD84A6D126}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{825F05E4-BEBE-440B-A190-C6A5B94757A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2F2208B3-CC7D-413E-A2AA-91FE9D10DC9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{831D0C52-2D5F-4047-B9D5-D49FFB0AD894}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B9340EB6-C180-4F5F-A2ED-1B206F1A64C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
